--- a/test/test/final_results.xlsx
+++ b/test/test/final_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\uri\csc411\Hyperthreading\test\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C34EF49-95FA-46A5-836C-7F9EC805D3A1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E01EBD82-81E9-4F60-A834-0569BC777700}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CC3419B3-324D-4630-AACE-01EFFBEC01BB}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CC3419B3-324D-4630-AACE-01EFFBEC01BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,12 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>average_duration_no_hp</t>
-  </si>
-  <si>
-    <t>Average Duration(s) with hp</t>
-  </si>
-  <si>
     <t>num_threads</t>
   </si>
   <si>
@@ -52,6 +46,12 @@
   </si>
   <si>
     <t>4 Threads</t>
+  </si>
+  <si>
+    <t>Hyperthreading</t>
+  </si>
+  <si>
+    <t>No Hyperthreading</t>
   </si>
 </sst>
 </file>
@@ -1470,6 +1470,77 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
+              <a:srgbClr val="7030A0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$H$2:$H$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1 Thread</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2 Threads</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4 Threads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$2:$J$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>15.659166666666666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.7871966666666665</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1647633333333332</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5452-49EF-9098-CB2E7E239FC9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hyperthreading</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
               <a:srgbClr val="C00000"/>
             </a:solidFill>
             <a:ln>
@@ -1486,7 +1557,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$G$2:$G$4</c:f>
+              <c:f>Sheet1!$H$2:$H$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1515,69 +1586,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4.3167033333333329</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5452-49EF-9098-CB2E7E239FC9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>With Hyperthreading</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="7030A0"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$G$2:$G$4</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1 Thread</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2 Threads</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4 Threads</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$H$2:$H$4</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>15.659166666666666</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.7871966666666665</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.1647633333333332</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1799,6 +1807,498 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Impact of Hyperthreading</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> on Runtime</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hyperthreading</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$H$2:$H$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1 Thread</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2 Threads</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4 Threads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$2:$I$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>16.005866666666666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.2856133333333322</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.3167033333333329</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5CC8-4570-83F7-D257135EABC4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>No Hyperthreading</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$H$2:$H$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1 Thread</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2 Threads</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4 Threads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$2:$J$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>15.659166666666666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.7871966666666665</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1647633333333332</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5CC8-4570-83F7-D257135EABC4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="1231287343"/>
+        <c:axId val="1231286511"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1231287343"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1231286511"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1231286511"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1231287343"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1919,6 +2419,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -2952,6 +3492,502 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3554,6 +4590,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45AD29EC-2983-42A7-ABDB-82F2CFEBD186}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3859,10 +4931,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22967092-64F6-4E30-B491-3DCDE3611C5E}">
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3874,20 +4946,21 @@
     <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H1" t="s">
         <v>0</v>
       </c>
       <c r="I1" t="s">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3900,17 +4973,17 @@
       <c r="D2" s="1">
         <v>1.3832933333333333</v>
       </c>
-      <c r="G2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="1">
-        <v>15.659166666666666</v>
+      <c r="H2" t="s">
+        <v>1</v>
       </c>
       <c r="I2" s="1">
         <v>16.005866666666666</v>
       </c>
+      <c r="J2" s="1">
+        <v>15.659166666666666</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3923,17 +4996,17 @@
       <c r="D3" s="1">
         <v>2.0453899999999998</v>
       </c>
-      <c r="G3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="1">
-        <v>7.7871966666666665</v>
+      <c r="H3" t="s">
+        <v>2</v>
       </c>
       <c r="I3" s="1">
         <v>8.2856133333333322</v>
       </c>
+      <c r="J3" s="1">
+        <v>7.7871966666666665</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -3946,17 +5019,17 @@
       <c r="D4" s="1">
         <v>3.0061433333333336</v>
       </c>
-      <c r="G4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="1">
-        <v>4.1647633333333332</v>
+      <c r="H4" t="s">
+        <v>3</v>
       </c>
       <c r="I4" s="1">
         <v>4.3167033333333329</v>
       </c>
+      <c r="J4" s="1">
+        <v>4.1647633333333332</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -3970,7 +5043,7 @@
         <v>4.007343333333333</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -3984,7 +5057,7 @@
         <v>4.9934833333333337</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -3998,7 +5071,7 @@
         <v>6.0003166666666665</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -4012,7 +5085,7 @@
         <v>7.0708333333333329</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -4026,7 +5099,7 @@
         <v>8.0503266666666686</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -4040,7 +5113,7 @@
         <v>9.027966666666666</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -4054,7 +5127,7 @@
         <v>10.018146666666667</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -4068,7 +5141,7 @@
         <v>11.015766666666666</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -4082,7 +5155,7 @@
         <v>12.015766666666666</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -4096,7 +5169,7 @@
         <v>13.020366666666668</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -4110,7 +5183,7 @@
         <v>14.012333333333332</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
